--- a/misc/Stories.xlsx
+++ b/misc/Stories.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\my-react-app\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81670849-7C1B-466E-9FEB-79F2B41F278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036BB462-2E28-4364-A454-218D9845BC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Remove the header, which contains menu like header, navigation, tasks, and instead, divide them into a separtae components using React JS only.  Eg, heaer component, navigation component, tasks component, etc.</t>
   </si>
@@ -44,16 +44,63 @@
   </si>
   <si>
     <t>Low priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>I should saggregate/place all the components in a separate folder "components"</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>List of Components</t>
+  </si>
+  <si>
+    <t>Search logic to be implemented to make it function fully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider keeping component specific styles together with the component at one place. Eg: Component.css and Component.js should be placed together </t>
+  </si>
+  <si>
+    <t>Partly done</t>
+  </si>
+  <si>
+    <t>Create a notificatin Component and needs to be placed at the top left corner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Gautami"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Gautami"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,13 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,32 +425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="1.2"/>
-  <cols>
-    <col min="1" max="1" width="155.765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="1.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDFBBC9-988B-4328-97A4-F82CE7243BC6}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="1.2"/>
@@ -417,6 +444,9 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="76.5" x14ac:dyDescent="1.2">
       <c r="A2" s="1" t="s">
@@ -429,8 +459,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="1.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="1.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="1.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="1.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
         <v>4</v>
@@ -445,4 +498,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E072B8E6-0CC0-4A1F-95AF-59103951DA43}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="1.2"/>
+  <cols>
+    <col min="1" max="1" width="15.07421875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="26.5" x14ac:dyDescent="1.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="1.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="1.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="1.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="1.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="1.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="1.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/misc/Stories.xlsx
+++ b/misc/Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\my-react-app\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036BB462-2E28-4364-A454-218D9845BC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F03173E-7F89-47F6-8292-770C40433D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Remove the header, which contains menu like header, navigation, tasks, and instead, divide them into a separtae components using React JS only.  Eg, heaer component, navigation component, tasks component, etc.</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Create a notificatin Component and needs to be placed at the top left corner</t>
+  </si>
+  <si>
+    <t>Arrange the components in the left, right, left, and then right, so on.</t>
   </si>
 </sst>
 </file>
@@ -428,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDFBBC9-988B-4328-97A4-F82CE7243BC6}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="1.2"/>
@@ -490,6 +493,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="1.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s">
         <v>5</v>

--- a/misc/Stories.xlsx
+++ b/misc/Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\my-react-app\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F03173E-7F89-47F6-8292-770C40433D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC676BE-1DBF-46A8-BAED-1B0CD2B44806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Remove the header, which contains menu like header, navigation, tasks, and instead, divide them into a separtae components using React JS only.  Eg, heaer component, navigation component, tasks component, etc.</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Arrange the components in the left, right, left, and then right, so on.</t>
+  </si>
+  <si>
+    <t>Create a roadmap, preferrably in a shape form like tree, leaf, Myshow4all Logo, etc., at the top through which any component can be accessed with a referrenced link to each component</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDFBBC9-988B-4328-97A4-F82CE7243BC6}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="1.2"/>
@@ -499,6 +502,11 @@
       <c r="F8" s="2"/>
       <c r="G8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="76.5" x14ac:dyDescent="1.2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
